--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.960719737498</v>
+        <v>0.2027447273426667</v>
       </c>
       <c r="R2">
-        <v>8.646477637481999</v>
+        <v>1.824702546084</v>
       </c>
       <c r="S2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="T2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>367.374267</v>
       </c>
       <c r="I3">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J3">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,10 +635,10 @@
         <v>302.673045844494</v>
       </c>
       <c r="S3">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="T3">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H4">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I4">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J4">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.500994822704222</v>
+        <v>1.564954796298</v>
       </c>
       <c r="R4">
-        <v>13.508953404338</v>
+        <v>14.084593166682</v>
       </c>
       <c r="S4">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="T4">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H5">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1302266337026667</v>
+        <v>0.2254598864222222</v>
       </c>
       <c r="R5">
-        <v>1.172039703324</v>
+        <v>2.0291389778</v>
       </c>
       <c r="S5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="T5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
     </row>
   </sheetData>
